--- a/data/flights_cleaned.xlsx
+++ b/data/flights_cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Documents\GitHub\TheCrabTeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Documents\GitHub\TheCrabTeam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2CDADB-6662-4BAB-8E49-55AE5FA2490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343C54BA-B193-47BF-A3B4-D19F8A7F8E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5170,7 +5170,7 @@
   <dimension ref="A1:S1511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1425" sqref="F1425"/>
+      <selection activeCell="I1429" sqref="I1429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
